--- a/Data/Processed/Sapwood/SapwoodAreaSummary.xlsx
+++ b/Data/Processed/Sapwood/SapwoodAreaSummary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yliua\Desktop\MP.June\Data\Processed\Sapwood\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CD94BA8-5B28-4DB1-B8BC-FDAC234CF949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6332ADE-D373-4D68-BAA0-A1C09F6C16A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-2895" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="20">
   <si>
     <t>LA</t>
   </si>
@@ -70,6 +70,21 @@
   </si>
   <si>
     <t>STD</t>
+  </si>
+  <si>
+    <t>All blocks</t>
+  </si>
+  <si>
+    <t>Block 1</t>
+  </si>
+  <si>
+    <t>Block 2</t>
+  </si>
+  <si>
+    <t>Block 3</t>
+  </si>
+  <si>
+    <t>Block 4</t>
   </si>
 </sst>
 </file>
@@ -93,7 +108,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -101,12 +116,107 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -387,244 +497,1075 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:AO39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="3"/>
+      <c r="AH1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+      <c r="AN1" s="2"/>
+      <c r="AO1" s="3"/>
+    </row>
+    <row r="2" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A2" s="4"/>
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I2" s="6" t="s">
         <v>7</v>
       </c>
+      <c r="J2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="V2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="W2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="X2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AO2" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B2">
+      <c r="B3" s="5">
         <v>43.17</v>
       </c>
-      <c r="C2">
+      <c r="C3" s="5">
         <v>59.23</v>
       </c>
-      <c r="D2">
+      <c r="D3" s="5">
         <v>0</v>
       </c>
-      <c r="E2">
+      <c r="E3" s="5">
         <v>22.75</v>
       </c>
-      <c r="F2">
+      <c r="F3" s="5">
         <v>16.760000000000002</v>
       </c>
-      <c r="G2">
+      <c r="G3" s="5">
         <v>0</v>
       </c>
-      <c r="H2">
+      <c r="H3" s="5">
         <v>0</v>
       </c>
-      <c r="I2">
+      <c r="I3" s="6">
         <v>13.28</v>
       </c>
+      <c r="J3" s="4">
+        <v>90.19</v>
+      </c>
+      <c r="K3" s="5">
+        <v>103.5</v>
+      </c>
+      <c r="L3" s="5">
+        <v>103.5</v>
+      </c>
+      <c r="M3" s="5">
+        <v>189.7</v>
+      </c>
+      <c r="N3" s="5">
+        <v>16.760000000000002</v>
+      </c>
+      <c r="O3" s="5">
+        <v>18.66</v>
+      </c>
+      <c r="P3" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="6">
+        <v>13.28</v>
+      </c>
+      <c r="R3" s="4">
+        <v>81.84</v>
+      </c>
+      <c r="S3" s="5">
+        <v>73.900000000000006</v>
+      </c>
+      <c r="T3" s="5">
+        <v>143.4</v>
+      </c>
+      <c r="U3" s="5">
+        <v>94.52</v>
+      </c>
+      <c r="V3" s="5">
+        <v>27.25</v>
+      </c>
+      <c r="W3" s="5">
+        <v>52.5</v>
+      </c>
+      <c r="X3" s="5">
+        <v>43.17</v>
+      </c>
+      <c r="Y3" s="6">
+        <v>27.25</v>
+      </c>
+      <c r="Z3" s="4">
+        <v>43.17</v>
+      </c>
+      <c r="AA3" s="5">
+        <v>117.7</v>
+      </c>
+      <c r="AB3" s="5">
+        <v>127.6</v>
+      </c>
+      <c r="AC3" s="5">
+        <v>22.75</v>
+      </c>
+      <c r="AD3" s="5">
+        <v>16.760000000000002</v>
+      </c>
+      <c r="AE3" s="5">
+        <v>32.15</v>
+      </c>
+      <c r="AF3" s="5">
+        <v>59.23</v>
+      </c>
+      <c r="AG3" s="6">
+        <v>37.46</v>
+      </c>
+      <c r="AH3" s="4">
+        <v>122.6</v>
+      </c>
+      <c r="AI3" s="5">
+        <v>59.23</v>
+      </c>
+      <c r="AJ3" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK3" s="5">
+        <v>98.94</v>
+      </c>
+      <c r="AL3" s="5">
+        <v>77.819999999999993</v>
+      </c>
+      <c r="AM3" s="5">
+        <v>0</v>
+      </c>
+      <c r="AN3" s="5">
+        <v>34.75</v>
+      </c>
+      <c r="AO3" s="6">
+        <v>52.5</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B3">
+      <c r="B4" s="5">
         <v>204.25</v>
       </c>
-      <c r="C3">
+      <c r="C4" s="5">
         <v>170.21</v>
       </c>
-      <c r="D3">
+      <c r="D4" s="5">
         <v>239.1</v>
       </c>
-      <c r="E3">
+      <c r="E4" s="5">
         <v>215.68</v>
       </c>
-      <c r="F3">
+      <c r="F4" s="5">
         <v>90.49</v>
       </c>
-      <c r="G3">
+      <c r="G4" s="5">
         <v>94.58</v>
       </c>
-      <c r="H3">
+      <c r="H4" s="5">
         <v>100.1</v>
       </c>
-      <c r="I3">
+      <c r="I4" s="6">
         <v>89.94</v>
       </c>
+      <c r="J4" s="4">
+        <v>222.47</v>
+      </c>
+      <c r="K4" s="5">
+        <v>183.9</v>
+      </c>
+      <c r="L4" s="5">
+        <v>252.7</v>
+      </c>
+      <c r="M4" s="5">
+        <v>264.39999999999998</v>
+      </c>
+      <c r="N4" s="5">
+        <v>82.17</v>
+      </c>
+      <c r="O4" s="5">
+        <v>127.17</v>
+      </c>
+      <c r="P4" s="5">
+        <v>107.2</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>100.72</v>
+      </c>
+      <c r="R4" s="4">
+        <v>230.98</v>
+      </c>
+      <c r="S4" s="5">
+        <v>176.2</v>
+      </c>
+      <c r="T4" s="5">
+        <v>219.7</v>
+      </c>
+      <c r="U4" s="5">
+        <v>206.28</v>
+      </c>
+      <c r="V4" s="5">
+        <v>74.08</v>
+      </c>
+      <c r="W4" s="5">
+        <v>90.28</v>
+      </c>
+      <c r="X4" s="5">
+        <v>99.18</v>
+      </c>
+      <c r="Y4" s="6">
+        <v>96.22</v>
+      </c>
+      <c r="Z4" s="4">
+        <v>184.15</v>
+      </c>
+      <c r="AA4" s="5">
+        <v>191.6</v>
+      </c>
+      <c r="AB4" s="5">
+        <v>253.9</v>
+      </c>
+      <c r="AC4" s="5">
+        <v>179.29</v>
+      </c>
+      <c r="AD4" s="5">
+        <v>92.28</v>
+      </c>
+      <c r="AE4" s="5">
+        <v>108.22</v>
+      </c>
+      <c r="AF4" s="5">
+        <v>98.71</v>
+      </c>
+      <c r="AG4" s="6">
+        <v>93.43</v>
+      </c>
+      <c r="AH4" s="4">
+        <v>195.1</v>
+      </c>
+      <c r="AI4" s="5">
+        <v>124.33</v>
+      </c>
+      <c r="AJ4" s="5">
+        <v>235.8</v>
+      </c>
+      <c r="AK4" s="5">
+        <v>204.13</v>
+      </c>
+      <c r="AL4" s="5">
+        <v>122.65</v>
+      </c>
+      <c r="AM4" s="5">
+        <v>74.06</v>
+      </c>
+      <c r="AN4" s="5">
+        <v>99.34</v>
+      </c>
+      <c r="AO4" s="6">
+        <v>74.36</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B4">
+      <c r="B5" s="5">
         <v>248.7</v>
       </c>
-      <c r="C4">
+      <c r="C5" s="5">
         <v>249.86</v>
       </c>
-      <c r="D4">
+      <c r="D5" s="5">
         <v>289.10000000000002</v>
       </c>
-      <c r="E4">
+      <c r="E5" s="5">
         <v>270.14999999999998</v>
       </c>
-      <c r="F4">
+      <c r="F5" s="5">
         <v>130.31</v>
       </c>
-      <c r="G4">
+      <c r="G5" s="5">
         <v>138.19999999999999</v>
       </c>
-      <c r="H4">
+      <c r="H5" s="5">
         <v>132.19999999999999</v>
       </c>
-      <c r="I4">
+      <c r="I5" s="6">
         <v>139.82</v>
       </c>
+      <c r="J5" s="4">
+        <v>271.60000000000002</v>
+      </c>
+      <c r="K5" s="5">
+        <v>260</v>
+      </c>
+      <c r="L5" s="5">
+        <v>298.39999999999998</v>
+      </c>
+      <c r="M5" s="5">
+        <v>295.89999999999998</v>
+      </c>
+      <c r="N5" s="5">
+        <v>117.67</v>
+      </c>
+      <c r="O5" s="5">
+        <v>159.88999999999999</v>
+      </c>
+      <c r="P5" s="5">
+        <v>132.9</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>148.83000000000001</v>
+      </c>
+      <c r="R5" s="4">
+        <v>275.10000000000002</v>
+      </c>
+      <c r="S5" s="5">
+        <v>257.2</v>
+      </c>
+      <c r="T5" s="5">
+        <v>279.10000000000002</v>
+      </c>
+      <c r="U5" s="5">
+        <v>257.11</v>
+      </c>
+      <c r="V5" s="5">
+        <v>111.6</v>
+      </c>
+      <c r="W5" s="5">
+        <v>121.8</v>
+      </c>
+      <c r="X5" s="5">
+        <v>125.19</v>
+      </c>
+      <c r="Y5" s="6">
+        <v>171.42</v>
+      </c>
+      <c r="Z5" s="4">
+        <v>237.3</v>
+      </c>
+      <c r="AA5" s="5">
+        <v>249</v>
+      </c>
+      <c r="AB5" s="5">
+        <v>297.3</v>
+      </c>
+      <c r="AC5" s="5">
+        <v>244.24</v>
+      </c>
+      <c r="AD5" s="5">
+        <v>138.93</v>
+      </c>
+      <c r="AE5" s="5">
+        <v>148.63</v>
+      </c>
+      <c r="AF5" s="5">
+        <v>132.87</v>
+      </c>
+      <c r="AG5" s="6">
+        <v>130.82</v>
+      </c>
+      <c r="AH5" s="4">
+        <v>225.7</v>
+      </c>
+      <c r="AI5" s="5">
+        <v>229</v>
+      </c>
+      <c r="AJ5" s="5">
+        <v>286.8</v>
+      </c>
+      <c r="AK5" s="5">
+        <v>255.33</v>
+      </c>
+      <c r="AL5" s="5">
+        <v>160.21</v>
+      </c>
+      <c r="AM5" s="5">
+        <v>127.66</v>
+      </c>
+      <c r="AN5" s="5">
+        <v>132.96</v>
+      </c>
+      <c r="AO5" s="6">
+        <v>127.48</v>
+      </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B5">
+      <c r="B6" s="5">
         <v>248.93</v>
       </c>
-      <c r="C5">
+      <c r="C6" s="5">
         <v>243.94</v>
       </c>
-      <c r="D5">
+      <c r="D6" s="5">
         <v>287.3</v>
       </c>
-      <c r="E5">
+      <c r="E6" s="5">
         <v>267.93</v>
       </c>
-      <c r="F5">
+      <c r="F6" s="5">
         <v>130.57</v>
       </c>
-      <c r="G5">
+      <c r="G6" s="5">
         <v>138.83000000000001</v>
       </c>
-      <c r="H5">
+      <c r="H6" s="5">
         <v>135</v>
       </c>
-      <c r="I5">
+      <c r="I6" s="6">
         <v>141.35</v>
       </c>
+      <c r="J6" s="4">
+        <v>268.2</v>
+      </c>
+      <c r="K6" s="5">
+        <v>261.89999999999998</v>
+      </c>
+      <c r="L6" s="5">
+        <v>305.60000000000002</v>
+      </c>
+      <c r="M6" s="5">
+        <v>303</v>
+      </c>
+      <c r="N6" s="5">
+        <v>123.91</v>
+      </c>
+      <c r="O6" s="5">
+        <v>148.30000000000001</v>
+      </c>
+      <c r="P6" s="5">
+        <v>132.30000000000001</v>
+      </c>
+      <c r="Q6" s="6">
+        <v>140.79</v>
+      </c>
+      <c r="R6" s="4">
+        <v>267.77</v>
+      </c>
+      <c r="S6" s="5">
+        <v>253.5</v>
+      </c>
+      <c r="T6" s="5">
+        <v>276.8</v>
+      </c>
+      <c r="U6" s="5">
+        <v>265.83999999999997</v>
+      </c>
+      <c r="V6" s="5">
+        <v>112.5</v>
+      </c>
+      <c r="W6" s="5">
+        <v>126.75</v>
+      </c>
+      <c r="X6" s="5">
+        <v>134.44999999999999</v>
+      </c>
+      <c r="Y6" s="6">
+        <v>161.24</v>
+      </c>
+      <c r="Z6" s="4">
+        <v>233.33</v>
+      </c>
+      <c r="AA6" s="5">
+        <v>243.1</v>
+      </c>
+      <c r="AB6" s="5">
+        <v>296.10000000000002</v>
+      </c>
+      <c r="AC6" s="5">
+        <v>238.72</v>
+      </c>
+      <c r="AD6" s="5">
+        <v>132.05000000000001</v>
+      </c>
+      <c r="AE6" s="5">
+        <v>147</v>
+      </c>
+      <c r="AF6" s="5">
+        <v>135.84</v>
+      </c>
+      <c r="AG6" s="6">
+        <v>132.19</v>
+      </c>
+      <c r="AH6" s="4">
+        <v>220.6</v>
+      </c>
+      <c r="AI6" s="5">
+        <v>211.27</v>
+      </c>
+      <c r="AJ6" s="5">
+        <v>269.89999999999998</v>
+      </c>
+      <c r="AK6" s="5">
+        <v>256.57</v>
+      </c>
+      <c r="AL6" s="5">
+        <v>155.49</v>
+      </c>
+      <c r="AM6" s="5">
+        <v>124.64</v>
+      </c>
+      <c r="AN6" s="5">
+        <v>138.77000000000001</v>
+      </c>
+      <c r="AO6" s="6">
+        <v>135.19999999999999</v>
+      </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B6">
+      <c r="B7" s="5">
         <v>295.14999999999998</v>
       </c>
-      <c r="C6">
+      <c r="C7" s="5">
         <v>309.56</v>
       </c>
-      <c r="D6">
+      <c r="D7" s="5">
         <v>341</v>
       </c>
-      <c r="E6">
+      <c r="E7" s="5">
         <v>322.08</v>
       </c>
-      <c r="F6">
+      <c r="F7" s="5">
         <v>171.43</v>
       </c>
-      <c r="G6">
+      <c r="G7" s="5">
         <v>182.66</v>
       </c>
-      <c r="H6">
+      <c r="H7" s="5">
         <v>169.1</v>
       </c>
-      <c r="I6">
+      <c r="I7" s="6">
         <v>189.88</v>
       </c>
+      <c r="J7" s="4">
+        <v>317.22000000000003</v>
+      </c>
+      <c r="K7" s="5">
+        <v>322.8</v>
+      </c>
+      <c r="L7" s="5">
+        <v>358.8</v>
+      </c>
+      <c r="M7" s="5">
+        <v>340.9</v>
+      </c>
+      <c r="N7" s="5">
+        <v>169.9</v>
+      </c>
+      <c r="O7" s="5">
+        <v>189.26</v>
+      </c>
+      <c r="P7" s="5">
+        <v>160.19999999999999</v>
+      </c>
+      <c r="Q7" s="6">
+        <v>177.39</v>
+      </c>
+      <c r="R7" s="4">
+        <v>321.3</v>
+      </c>
+      <c r="S7" s="5">
+        <v>330.7</v>
+      </c>
+      <c r="T7" s="5">
+        <v>326.89999999999998</v>
+      </c>
+      <c r="U7" s="5">
+        <v>325.24</v>
+      </c>
+      <c r="V7" s="5">
+        <v>143.24</v>
+      </c>
+      <c r="W7" s="5">
+        <v>156.44999999999999</v>
+      </c>
+      <c r="X7" s="5">
+        <v>171.91</v>
+      </c>
+      <c r="Y7" s="6">
+        <v>216.52</v>
+      </c>
+      <c r="Z7" s="4">
+        <v>281.37</v>
+      </c>
+      <c r="AA7" s="5">
+        <v>293.7</v>
+      </c>
+      <c r="AB7" s="5">
+        <v>342.9</v>
+      </c>
+      <c r="AC7" s="5">
+        <v>299.16000000000003</v>
+      </c>
+      <c r="AD7" s="5">
+        <v>170.85</v>
+      </c>
+      <c r="AE7" s="5">
+        <v>184.38</v>
+      </c>
+      <c r="AF7" s="5">
+        <v>162.11000000000001</v>
+      </c>
+      <c r="AG7" s="6">
+        <v>175.25</v>
+      </c>
+      <c r="AH7" s="4">
+        <v>247.5</v>
+      </c>
+      <c r="AI7" s="5">
+        <v>286.05</v>
+      </c>
+      <c r="AJ7" s="5">
+        <v>334.6</v>
+      </c>
+      <c r="AK7" s="5">
+        <v>310.16000000000003</v>
+      </c>
+      <c r="AL7" s="5">
+        <v>181.94</v>
+      </c>
+      <c r="AM7" s="5">
+        <v>166.48</v>
+      </c>
+      <c r="AN7" s="5">
+        <v>176.69</v>
+      </c>
+      <c r="AO7" s="6">
+        <v>186.26</v>
+      </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B7">
+      <c r="B8" s="5">
         <v>449.53</v>
       </c>
-      <c r="C7">
+      <c r="C8" s="5">
         <v>488.52</v>
       </c>
-      <c r="D7">
+      <c r="D8" s="5">
         <v>518.79999999999995</v>
       </c>
-      <c r="E7">
+      <c r="E8" s="5">
         <v>498.52</v>
       </c>
-      <c r="F7">
+      <c r="F8" s="5">
         <v>256.79000000000002</v>
       </c>
-      <c r="G7">
+      <c r="G8" s="5">
         <v>309.77999999999997</v>
       </c>
-      <c r="H7">
+      <c r="H8" s="5">
         <v>264.10000000000002</v>
       </c>
-      <c r="I7">
+      <c r="I8" s="6">
         <v>286.45999999999998</v>
       </c>
+      <c r="J8" s="4">
+        <v>421.35</v>
+      </c>
+      <c r="K8" s="5">
+        <v>488.5</v>
+      </c>
+      <c r="L8" s="5">
+        <v>518.79999999999995</v>
+      </c>
+      <c r="M8" s="5">
+        <v>498.5</v>
+      </c>
+      <c r="N8" s="5">
+        <v>228.75</v>
+      </c>
+      <c r="O8" s="5">
+        <v>271.42</v>
+      </c>
+      <c r="P8" s="5">
+        <v>256.8</v>
+      </c>
+      <c r="Q8" s="6">
+        <v>256.79000000000002</v>
+      </c>
+      <c r="R8" s="4">
+        <v>449.53</v>
+      </c>
+      <c r="S8" s="5">
+        <v>421.3</v>
+      </c>
+      <c r="T8" s="5">
+        <v>459.1</v>
+      </c>
+      <c r="U8" s="5">
+        <v>468.82</v>
+      </c>
+      <c r="V8" s="5">
+        <v>208.77</v>
+      </c>
+      <c r="W8" s="5">
+        <v>264.06</v>
+      </c>
+      <c r="X8" s="5">
+        <v>235.61</v>
+      </c>
+      <c r="Y8" s="6">
+        <v>286.45999999999998</v>
+      </c>
+      <c r="Z8" s="4">
+        <v>376.41</v>
+      </c>
+      <c r="AA8" s="5">
+        <v>376.4</v>
+      </c>
+      <c r="AB8" s="5">
+        <v>440</v>
+      </c>
+      <c r="AC8" s="5">
+        <v>403.07</v>
+      </c>
+      <c r="AD8" s="5">
+        <v>235.61</v>
+      </c>
+      <c r="AE8" s="5">
+        <v>309.77999999999997</v>
+      </c>
+      <c r="AF8" s="5">
+        <v>264.06</v>
+      </c>
+      <c r="AG8" s="6">
+        <v>264.06</v>
+      </c>
+      <c r="AH8" s="4">
+        <v>334</v>
+      </c>
+      <c r="AI8" s="5">
+        <v>394.08</v>
+      </c>
+      <c r="AJ8" s="5">
+        <v>449.5</v>
+      </c>
+      <c r="AK8" s="5">
+        <v>412.16</v>
+      </c>
+      <c r="AL8" s="5">
+        <v>256.79000000000002</v>
+      </c>
+      <c r="AM8" s="5">
+        <v>249.63</v>
+      </c>
+      <c r="AN8" s="5">
+        <v>242.57</v>
+      </c>
+      <c r="AO8" s="6">
+        <v>271.42</v>
+      </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="9" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B8">
+      <c r="B9" s="8">
         <v>0.38074770000000002</v>
       </c>
-      <c r="C8">
+      <c r="C9" s="8">
         <v>0.46612360000000003</v>
       </c>
-      <c r="D8">
+      <c r="D9" s="8">
         <v>0.41741309999999998</v>
       </c>
-      <c r="E8">
+      <c r="E9" s="8">
         <v>0.4503723</v>
       </c>
-      <c r="F8">
+      <c r="F9" s="8">
         <v>0.26405889999999999</v>
       </c>
-      <c r="G8">
+      <c r="G9" s="8">
         <v>0.31059409999999998</v>
       </c>
-      <c r="H8">
+      <c r="H9" s="8">
         <v>0.25979079999999999</v>
       </c>
-      <c r="I8">
+      <c r="I9" s="9">
         <v>0.34554679999999999</v>
       </c>
+      <c r="J9" s="7">
+        <v>0.75193770000000004</v>
+      </c>
+      <c r="K9" s="8">
+        <v>0.97137700000000005</v>
+      </c>
+      <c r="L9" s="8">
+        <v>0.92990779999999995</v>
+      </c>
+      <c r="M9" s="8">
+        <v>0.70836030000000005</v>
+      </c>
+      <c r="N9" s="8">
+        <v>0.57674899999999996</v>
+      </c>
+      <c r="O9" s="8">
+        <v>0.61475429999999998</v>
+      </c>
+      <c r="P9" s="8">
+        <v>0.5249914</v>
+      </c>
+      <c r="Q9" s="9">
+        <v>0.64427160000000006</v>
+      </c>
+      <c r="R9" s="7">
+        <v>0.87647059999999999</v>
+      </c>
+      <c r="S9" s="8">
+        <v>0.95760409999999996</v>
+      </c>
+      <c r="T9" s="8">
+        <v>0.72206420000000004</v>
+      </c>
+      <c r="U9" s="8">
+        <v>0.99174799999999996</v>
+      </c>
+      <c r="V9" s="8">
+        <v>0.48777569999999998</v>
+      </c>
+      <c r="W9" s="8">
+        <v>0.50302610000000003</v>
+      </c>
+      <c r="X9" s="8">
+        <v>0.51369640000000005</v>
+      </c>
+      <c r="Y9" s="9">
+        <v>0.77954840000000003</v>
+      </c>
+      <c r="Z9" s="7">
+        <v>0.7727077</v>
+      </c>
+      <c r="AA9" s="8">
+        <v>0.72967420000000005</v>
+      </c>
+      <c r="AB9" s="8">
+        <v>0.72177630000000004</v>
+      </c>
+      <c r="AC9" s="8">
+        <v>0.98830099999999999</v>
+      </c>
+      <c r="AD9" s="8">
+        <v>0.54675419999999997</v>
+      </c>
+      <c r="AE9" s="8">
+        <v>0.61557689999999998</v>
+      </c>
+      <c r="AF9" s="8">
+        <v>0.50230359999999996</v>
+      </c>
+      <c r="AG9" s="9">
+        <v>0.6422293</v>
+      </c>
+      <c r="AH9" s="7">
+        <v>0.48089969999999999</v>
+      </c>
+      <c r="AI9" s="8">
+        <v>1.0951489999999999</v>
+      </c>
+      <c r="AJ9" s="8">
+        <v>0.97985040000000001</v>
+      </c>
+      <c r="AK9" s="8">
+        <v>0.87024849999999998</v>
+      </c>
+      <c r="AL9" s="8">
+        <v>0.43932090000000001</v>
+      </c>
+      <c r="AM9" s="8">
+        <v>0.72992590000000002</v>
+      </c>
+      <c r="AN9" s="8">
+        <v>0.581646</v>
+      </c>
+      <c r="AO9" s="9">
+        <v>0.71387699999999998</v>
+      </c>
     </row>
+    <row r="39" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="J1:Q1"/>
+    <mergeCell ref="R1:Y1"/>
+    <mergeCell ref="Z1:AG1"/>
+    <mergeCell ref="AH1:AO1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>